--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_60.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_60.xlsx
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F30">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F32">
